--- a/Tomato_Prices_2024.xlsx
+++ b/Tomato_Prices_2024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\ml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{38D642E5-00CB-4003-9750-129AA11C0031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56244EC8-24F4-4B23-BE7E-B534D9C05289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A28E2166-E99C-46C7-8523-FF3C1AF64D4E}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>peliyagoda min Tomato price</t>
-  </si>
-  <si>
     <t>peliyagoda max Tomato price</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>dambulla average Tomato price</t>
+  </si>
+  <si>
+    <t>Gampola min Tomato price</t>
   </si>
 </sst>
 </file>
@@ -444,20 +444,21 @@
   <dimension ref="A1:J386"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="9" width="16.109375" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.21875" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="25.21875" customWidth="1"/>
+    <col min="9" max="9" width="24.6640625" customWidth="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -465,31 +466,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
